--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4136,7 +4137,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -4168,7 +4168,6 @@
           <t>东吴行业轮动混合C</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>85.54</t>
@@ -4200,7 +4199,6 @@
           <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>92.10</t>
@@ -4232,7 +4230,6 @@
           <t>九泰锐丰灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>94.44</t>
@@ -4248,6 +4245,1162 @@
       </c>
       <c r="H59" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0719</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5406,4 +5407,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7961</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6273</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6907,4 +6908,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6916,7 +6917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6927,17 +6928,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6947,14 +6968,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.19</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>157.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6963,14 +7006,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.61</v>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6979,14 +7044,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.44</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6995,13 +7082,2087 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3950</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2810</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0932</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4730</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>30.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9061,7 +9062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9072,17 +9073,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9092,14 +9113,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.62</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -9108,14 +9151,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.19</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9124,14 +9189,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.61</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9140,14 +9227,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.44</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9156,13 +9265,1001 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>30.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10142,7 +10143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10153,17 +10154,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10173,14 +10194,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.87</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10189,14 +10232,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.62</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -10205,14 +10270,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.19</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -10221,14 +10308,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.61</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -10237,14 +10346,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>58</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.44</v>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -10253,13 +10384,1739 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华金城灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>30.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>17.97</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>17.87</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>31.62</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>28.19</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>12.61</v>
+        <v>28.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>32.44</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>30.62</v>
       </c>
     </row>
@@ -600,6 +617,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,7 +3766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,7 +4846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5663,7 +6990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7163,7 +8490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8319,7 +9646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10551,7 +11878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
+++ b/数据整理/stocks/A股/创业板/300144-宋城演艺.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>17.97</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>17.87</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>31.62</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>28.19</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>12.61</v>
+        <v>28.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>32.44</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1604 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>30.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>352.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3383</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9654</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4622</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000406</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富双利增强债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000407</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富双利增强债券C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2208,2646 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0761</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8762</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>48.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>48.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +6157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3766,7 +7997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4846,7 +9077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6990,7 +11221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8490,7 +12721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9646,7 +13877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11876,1578 +16107,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163402</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全趋势投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>352.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.1532</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519068</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富成长焦点混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>95.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.5196</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519066</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.1675</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>470008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富策略回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>38.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4337</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3383</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2078</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004424</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>41.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1051</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>163801</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银中国混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0242</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>163409</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>30.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9654</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008704</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5906</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163805</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银动态策略混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4684</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4622</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4142</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009791</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3057</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2416</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>163809</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2328</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160512</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时卓越品牌混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1826</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1776</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1602</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1575</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>050007</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时平衡配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>58.77</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1273</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008705</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001345</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富国新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>57.44</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1186</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000406</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇添富双利增强债券A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1127</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1035</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003769</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中银品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1025</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002420</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富盈鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0571</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>168104</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>九泰锐丰灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001347</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>富国新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>57.44</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>000407</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇添富双利增强债券C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>168111</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>九泰锐丰灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>